--- a/NHIS variable list_Modified_new.xlsx
+++ b/NHIS variable list_Modified_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncaandt-my.sharepoint.com/personal/hmoradi_ncat_edu/Documents/06_Codes/NHIS-surf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45891D71-6A9A-49F5-AA7E-04E1DE20F268}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFEC0D75-09F4-4307-9F79-520BA57093CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
   </bookViews>
@@ -451,9 +451,6 @@
     <t xml:space="preserve">Married; Living with a partner; Unknown marital status </t>
   </si>
   <si>
-    <t>1=Married; 2=Living with a partner; 3=Neiher married nor living with a partner; 4=Unknown marital status ["refused" or "not ascertained" or "don't know"}</t>
-  </si>
-  <si>
     <t>Refeence group=neither married nor living with partner</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t>Ever Had Depression</t>
   </si>
   <si>
-    <t>Body Mass Inxex Category</t>
-  </si>
-  <si>
     <t>1=underweight; 2=healthy weight; 3=overweight; 4=obese</t>
   </si>
   <si>
@@ -517,9 +511,6 @@
     <t>Cigarette Smoking Status</t>
   </si>
   <si>
-    <t>1=current every day smoker; 2=current some day smker; 3=former smoker; 4=never smoker</t>
-  </si>
-  <si>
     <t>Reference group=4</t>
   </si>
   <si>
@@ -589,9 +580,6 @@
     <t>1=very worried; 2=somewhat worried; 3=not at all worried</t>
   </si>
   <si>
-    <t>Delayed Medicall Caure Due to Cost in Past 12 Months</t>
-  </si>
-  <si>
     <t>Needed Medical Care But Did Not Get It Due to Cost in Past 12 months</t>
   </si>
   <si>
@@ -740,6 +728,18 @@
   </si>
   <si>
     <t>Ever Told By Doctor Had High Cholesterol</t>
+  </si>
+  <si>
+    <t>1=Married; 2=Living with a partner; 3=Neither married nor living with a partner; 4=Unknown marital status ["refused" or "not ascertained" or "don't know"}</t>
+  </si>
+  <si>
+    <t>Body Mass Index Category</t>
+  </si>
+  <si>
+    <t>1=current every day smoker; 2=current some day smoker; 3=former smoker; 4=never smoker</t>
+  </si>
+  <si>
+    <t>Delayed Medical Care Due to Cost in Past 12 Months</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1173,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,10 +1327,10 @@
         <v>140</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1338,19 +1338,19 @@
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1364,13 +1364,13 @@
         <v>112</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1384,10 +1384,10 @@
         <v>115</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>121</v>
@@ -1404,7 +1404,7 @@
         <v>115</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -1424,13 +1424,13 @@
         <v>113</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>115</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>117</v>
@@ -1518,7 +1518,7 @@
         <v>115</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>120</v>
@@ -1538,7 +1538,7 @@
         <v>115</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>123</v>
@@ -1556,10 +1556,10 @@
         <v>115</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J20" s="10"/>
     </row>
@@ -1574,10 +1574,10 @@
         <v>115</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J21" s="10"/>
     </row>
@@ -1592,13 +1592,13 @@
         <v>113</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
         <v>114</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J23" s="10"/>
     </row>
@@ -1630,10 +1630,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J24" s="10"/>
     </row>
@@ -1648,10 +1648,10 @@
         <v>114</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J25" s="10"/>
     </row>
@@ -1666,13 +1666,13 @@
         <v>114</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1686,16 +1686,16 @@
         <v>114</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>114</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1729,13 +1729,13 @@
         <v>114</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1749,10 +1749,10 @@
         <v>114</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>121</v>
@@ -1769,10 +1769,10 @@
         <v>114</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>121</v>
@@ -1789,10 +1789,10 @@
         <v>114</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J32" s="10"/>
     </row>
@@ -1807,10 +1807,10 @@
         <v>114</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>121</v>
@@ -1827,10 +1827,10 @@
         <v>114</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>121</v>
@@ -1847,10 +1847,10 @@
         <v>114</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>121</v>
@@ -1867,10 +1867,10 @@
         <v>114</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>121</v>
@@ -1887,10 +1887,10 @@
         <v>114</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>121</v>
@@ -1907,10 +1907,10 @@
         <v>114</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>121</v>
@@ -1927,10 +1927,10 @@
         <v>114</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>121</v>
@@ -1947,10 +1947,10 @@
         <v>114</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>121</v>
@@ -1967,10 +1967,10 @@
         <v>114</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>121</v>
@@ -1987,10 +1987,10 @@
         <v>114</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J42" s="10"/>
     </row>
@@ -2005,10 +2005,10 @@
         <v>114</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>121</v>
@@ -2025,18 +2025,18 @@
         <v>114</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
         <v>99</v>
@@ -2045,10 +2045,10 @@
         <v>114</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>121</v>
@@ -2065,10 +2065,10 @@
         <v>114</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>121</v>
@@ -2085,13 +2085,13 @@
         <v>114</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2105,13 +2105,13 @@
         <v>114</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -2125,13 +2125,13 @@
         <v>114</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -2145,10 +2145,10 @@
         <v>114</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>121</v>
@@ -2218,10 +2218,10 @@
         <v>113</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>121</v>
@@ -2229,16 +2229,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -2249,16 +2249,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -2309,16 +2309,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -2329,16 +2329,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -2349,16 +2349,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>

--- a/NHIS variable list_Modified_new.xlsx
+++ b/NHIS variable list_Modified_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncaandt-my.sharepoint.com/personal/hmoradi_ncat_edu/Documents/06_Codes/NHIS-surf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFEC0D75-09F4-4307-9F79-520BA57093CC}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B328F89D-B2B4-407D-9ACB-49FA81B63142}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="183">
   <si>
     <t>description</t>
   </si>
@@ -45,81 +45,42 @@
     <t>faminctc_a</t>
   </si>
   <si>
-    <t>imputed family income</t>
-  </si>
-  <si>
     <t>povrattc_a</t>
   </si>
   <si>
-    <t>imputed family poverty ratio</t>
-  </si>
-  <si>
     <t>incgrp_a</t>
   </si>
   <si>
-    <t>imputed family income group</t>
-  </si>
-  <si>
     <t>ratcat_a</t>
   </si>
   <si>
-    <t>imputed family income to poverty threshold ratio</t>
-  </si>
-  <si>
     <t>agep_a</t>
   </si>
   <si>
-    <t>age of adult</t>
-  </si>
-  <si>
     <t>sex_a</t>
   </si>
   <si>
-    <t>sex of adult</t>
-  </si>
-  <si>
     <t>educ_a</t>
   </si>
   <si>
-    <t>educational level</t>
-  </si>
-  <si>
     <t>hisp_a</t>
   </si>
   <si>
-    <t>hispanic ethnicity</t>
-  </si>
-  <si>
     <t>maxeduc_a</t>
   </si>
   <si>
-    <t>highest education level of all adults in home</t>
-  </si>
-  <si>
     <t>anxev_a</t>
   </si>
   <si>
-    <t>ever had anxiety disorder</t>
-  </si>
-  <si>
     <t>depev_a</t>
   </si>
   <si>
-    <t>ever had depression</t>
-  </si>
-  <si>
     <t>bmicat_a</t>
   </si>
   <si>
-    <t>body mass index category</t>
-  </si>
-  <si>
     <t>notcov_a</t>
   </si>
   <si>
-    <t>insurance coverage status</t>
-  </si>
-  <si>
     <t>PAYBLL12M_A</t>
   </si>
   <si>
@@ -129,42 +90,15 @@
     <t>PAYWORRY_A</t>
   </si>
   <si>
-    <t>problems paying medical bills past 12 months</t>
-  </si>
-  <si>
-    <t>unable to pay medical bills</t>
-  </si>
-  <si>
-    <t>get sik or have accident, worrying about paying medical bills</t>
-  </si>
-  <si>
-    <t>delayed medical care due to cost past 12 months</t>
-  </si>
-  <si>
-    <t>needed medical care but did not get it due to cost past 12 months</t>
-  </si>
-  <si>
     <t>meddl12m_a</t>
   </si>
   <si>
     <t>meddng12m_a</t>
   </si>
   <si>
-    <t>Skipped medication doses to save money, past 12m</t>
-  </si>
-  <si>
     <t>RXSK12M_A</t>
   </si>
   <si>
-    <t>Took less medication to save money, past 12m</t>
-  </si>
-  <si>
-    <t>Delayed filling prescription to save money, past 12m</t>
-  </si>
-  <si>
-    <t>Needed prescription medication but did not get it due to cost, past 12m</t>
-  </si>
-  <si>
     <t>RXLS12M_A</t>
   </si>
   <si>
@@ -174,9 +108,6 @@
     <t>RXDG12M_A</t>
   </si>
   <si>
-    <t>Opioid use - past 12 months</t>
-  </si>
-  <si>
     <t>OPD12M_A</t>
   </si>
   <si>
@@ -189,12 +120,6 @@
     <t>anxlevel_a</t>
   </si>
   <si>
-    <t>how often feel worried, nervous, or anxious</t>
-  </si>
-  <si>
-    <t>level of feelings when last felt worried/nervous/anxious</t>
-  </si>
-  <si>
     <t>depfreq_a</t>
   </si>
   <si>
@@ -204,21 +129,6 @@
     <t>deplevel_a</t>
   </si>
   <si>
-    <t>how often depressed</t>
-  </si>
-  <si>
-    <t>take medication for depression</t>
-  </si>
-  <si>
-    <t>level of depression</t>
-  </si>
-  <si>
-    <t>delayed counseling/therapy due  to cost past 12m</t>
-  </si>
-  <si>
-    <t>needed counseling/therapy but did not get it due to cost past 12m</t>
-  </si>
-  <si>
     <t>mhthdly_a</t>
   </si>
   <si>
@@ -228,13 +138,7 @@
     <t>phqcat_a</t>
   </si>
   <si>
-    <t>severity of depressive symptoms (PHQ)</t>
-  </si>
-  <si>
     <t>gadcat_a</t>
-  </si>
-  <si>
-    <t>severity of anxiety symptoms (GAD)</t>
   </si>
   <si>
     <t>paifrq3m_a</t>
@@ -274,81 +178,39 @@
     <t>The two primary outcome variables derived from these variables are chronic pain and high-impact chronic pain</t>
   </si>
   <si>
-    <t>general health status</t>
-  </si>
-  <si>
     <t>phstat_a</t>
   </si>
   <si>
-    <t>cigarette smoking status</t>
-  </si>
-  <si>
     <t>smkcigst_a</t>
   </si>
   <si>
-    <t>sexual orientation</t>
-  </si>
-  <si>
     <t>orient_a</t>
   </si>
   <si>
-    <t>marital status</t>
-  </si>
-  <si>
     <t>marital_a</t>
   </si>
   <si>
     <t>variable(s)</t>
   </si>
   <si>
-    <t>worked last week</t>
-  </si>
-  <si>
-    <t>hours worked last week</t>
-  </si>
-  <si>
     <t>empwrklswk_a</t>
   </si>
   <si>
     <t>empwkhrs2_a</t>
   </si>
   <si>
-    <t>usually work 35+ hours per week</t>
-  </si>
-  <si>
     <t>empwrkft_a</t>
   </si>
   <si>
     <t>pcntadtwkp_a</t>
   </si>
   <si>
-    <t>number of adults in family working</t>
-  </si>
-  <si>
-    <t>received food stamps past 12 months</t>
-  </si>
-  <si>
-    <t>received food stamps past 30 days</t>
-  </si>
-  <si>
     <t>fsnap30d_a</t>
   </si>
   <si>
-    <t>4 category food security</t>
-  </si>
-  <si>
     <t>fdscat4_a</t>
   </si>
   <si>
-    <t>length of time in house/apartment</t>
-  </si>
-  <si>
-    <t>residence owned/rented</t>
-  </si>
-  <si>
-    <t>paying lower rent</t>
-  </si>
-  <si>
     <t>houyrsliv_a</t>
   </si>
   <si>
@@ -382,9 +244,6 @@
     <t>1=daily;2=weekly;3=monthly;4=a few times as year; 5=never</t>
   </si>
   <si>
-    <t>take medicaiton for worried/nervous/anxious feelings</t>
-  </si>
-  <si>
     <t>Anxiety Medication</t>
   </si>
   <si>
@@ -400,9 +259,6 @@
     <t>1=a little; 2=a lot; 3=somewhere in between a little and a lot</t>
   </si>
   <si>
-    <t>2013 urbal-rural classification</t>
-  </si>
-  <si>
     <t>Geographic</t>
   </si>
   <si>
@@ -412,9 +268,6 @@
     <t>1=large central metro; 2=large fringe metro; 3=medium and small metro; 4=nonmetropolitan</t>
   </si>
   <si>
-    <t>Northeast region of U.S.; Midwest region of U.S.; Southern region of U.S.</t>
-  </si>
-  <si>
     <t>1=Northeast; 2=Midwest; 3=Southern; 4=West</t>
   </si>
   <si>
@@ -439,27 +292,15 @@
     <t>1=excellent; 2=very good; 3=good; 4=poor</t>
   </si>
   <si>
-    <t>Gay or Lesbian Sexual Orientation; Bisexual Orientation; Unknown Sexual Orientation</t>
-  </si>
-  <si>
     <t>1=Gay or Lesbian; 2=Straight; 3=Bisexual; 4=Unknown = "something else" or "I don't know the answer" or "refused" or "not ascertained"</t>
   </si>
   <si>
     <t>Reference group=Straight Sexual Orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Married; Living with a partner; Unknown marital status </t>
-  </si>
-  <si>
     <t>Refeence group=neither married nor living with partner</t>
   </si>
   <si>
-    <t>sinlge and multiple race groups</t>
-  </si>
-  <si>
-    <t>Black/African American only; Asian only; AIAN only; AIAN and any other group; Other single and multiple races</t>
-  </si>
-  <si>
     <t>1=White only; 2=Black/African American only; 3=Asian only; 4=AIAN only; 5=AIAN and any other group; 6=Other single and multiple races</t>
   </si>
   <si>
@@ -661,72 +502,48 @@
     <t>arthev_a</t>
   </si>
   <si>
-    <t>Arthritis</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had Arthritis</t>
   </si>
   <si>
     <t>canev_a</t>
   </si>
   <si>
-    <t>Cancer</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had Cancer</t>
   </si>
   <si>
     <t>dibev_a</t>
   </si>
   <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had Diabetes</t>
   </si>
   <si>
     <t>hypev_a</t>
   </si>
   <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had Hypertension</t>
   </si>
   <si>
     <t>strev_a</t>
   </si>
   <si>
-    <t>Stroke</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had a Stroke</t>
   </si>
   <si>
     <t>copdev_a</t>
   </si>
   <si>
-    <t>Respiratory disease</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had Respiratory Disease</t>
   </si>
   <si>
     <t>chdev_a</t>
   </si>
   <si>
-    <t>Heart disease</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had Coronary Heart Disease</t>
   </si>
   <si>
     <t>chlev_a</t>
   </si>
   <si>
-    <t>High Cholesterol</t>
-  </si>
-  <si>
     <t>Ever Told By Doctor Had High Cholesterol</t>
   </si>
   <si>
@@ -740,6 +557,24 @@
   </si>
   <si>
     <t>Delayed Medical Care Due to Cost in Past 12 Months</t>
+  </si>
+  <si>
+    <t>Labels: Gay or Lesbian Orientation; Straight Orientation; Bisexual Orientation; Unknown Sexual Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels: Married; Living with a partner; Unknown marital status </t>
+  </si>
+  <si>
+    <t>Labels: Black/African American only; White only; Asian only; AIAN only; AIAN and any other group; Other single and multiple races</t>
+  </si>
+  <si>
+    <t>Highest Level of Education Completed</t>
+  </si>
+  <si>
+    <t>Highest Level of Education Completed By Any Adult In Family</t>
+  </si>
+  <si>
+    <t>Labels: Northeast Region of U.S.; Midwest Region of U.S.; Southern Region of U.S.; Western Region of U.S.</t>
   </si>
 </sst>
 </file>
@@ -763,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +626,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -855,6 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,9 +1013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15A277-6A4B-4FED-94DF-816CADB374AA}">
   <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56:J63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1196,24 +1038,24 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>124</v>
+      <c r="C2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="J2" s="10"/>
     </row>
@@ -1225,1166 +1067,1166 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>137</v>
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>140</v>
+        <v>66</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>143</v>
+        <v>66</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
+      <c r="C23" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" t="s">
-        <v>99</v>
+        <v>145</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
+        <v>59</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
+        <v>62</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
+        <v>63</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" t="s">
-        <v>211</v>
+        <v>157</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" t="s">
-        <v>214</v>
+        <v>159</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" t="s">
-        <v>217</v>
+        <v>161</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s">
-        <v>220</v>
+        <v>163</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C60" t="s">
-        <v>223</v>
+        <v>165</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" t="s">
-        <v>226</v>
+        <v>167</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" t="s">
-        <v>229</v>
+        <v>169</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" t="s">
-        <v>232</v>
+        <v>171</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/NHIS variable list_Modified_new.xlsx
+++ b/NHIS variable list_Modified_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncaandt-my.sharepoint.com/personal/hmoradi_ncat_edu/Documents/06_Codes/NHIS-surf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrmor\OneDrive - North Carolina A&amp;T State University\06_Codes\NHIS-surf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{D5C0F2D8-590C-5543-A8E4-295500E93607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B328F89D-B2B4-407D-9ACB-49FA81B63142}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290F889-0693-4DB9-9F9C-BB9399D5CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA949552-4F9F-40F0-90AF-3F34A678AD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="184">
   <si>
     <t>description</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>Labels: Northeast Region of U.S.; Midwest Region of U.S.; Southern Region of U.S.; Western Region of U.S.</t>
+  </si>
+  <si>
+    <t>HHX</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,6 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,11 +1015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15A277-6A4B-4FED-94DF-816CADB374AA}">
-  <dimension ref="B1:J63"/>
+  <dimension ref="B1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B67:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,6 +2233,11 @@
         <v>74</v>
       </c>
     </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
